--- a/data.xlsx
+++ b/data.xlsx
@@ -894,7 +894,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2020, 2022</t>
+          <t>2020, 2022, 2025</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1142,7 +1142,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2020, 2022</t>
+          <t>2020, 2022, 2025</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1114,7 +1114,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2020, 2021, 2022</t>
+          <t>2020, 2021, 2022, 2025</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1704,8 +1704,10 @@
           <t>Happyy Birthday Suraj bhaiyaa!!! It was nice working with you at ISRO!</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>2020</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2020, 2025</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1732,8 +1732,10 @@
           <t>Happy Birthday Shalini Didi!!!</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>2020</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2020, 2025</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1652,8 +1652,10 @@
           <t>Happyyy Birthdayy Meher mummmaaa!!! It was so nice working with you at ISRO. Thank you for every help in code as well as other stuff!!!</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>2020</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2020, 2025</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1196,7 +1196,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2020, 2022</t>
+          <t>2020, 2022, 2025</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -814,7 +814,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2020, 2022</t>
+          <t>2020, 2022, 2025</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2020, 2022</t>
+          <t>2020, 2022, 2025</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2020.0, 2021</t>
+          <t>2020.0, 2021, 2025</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -674,7 +674,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2020, 2021</t>
+          <t>2020, 2021, 2025</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -702,7 +702,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2020, 2021</t>
+          <t>2020, 2021, 2025</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1498,8 +1498,10 @@
           <t xml:space="preserve">Happpyy Birthdayyy Divyesh. Biggest fan of Virat Kohli! </t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>2020</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2020, 2025</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>

--- a/data.xlsx
+++ b/data.xlsx
@@ -730,7 +730,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2020, 2021, 2023</t>
+          <t>2020, 2021, 2023, 2025</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,16 +20,13 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -438,32 +426,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Sno</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Birthday</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Dialogue</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -478,7 +466,7 @@
           <t>Tejasvi</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="1" t="n">
         <v>44031</v>
       </c>
       <c r="D2" t="inlineStr">
@@ -504,7 +492,7 @@
           <t>Dhiral</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="1" t="n">
         <v>44194</v>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,7 +518,7 @@
           <t>Hinal Aunty</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="1" t="n">
         <v>44009</v>
       </c>
       <c r="D4" t="inlineStr">
@@ -558,7 +546,7 @@
           <t>Meet Ved</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="1" t="n">
         <v>44062</v>
       </c>
       <c r="D5" t="inlineStr">
@@ -584,7 +572,7 @@
           <t>Samarth Motka</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,7 +598,7 @@
           <t>Samarth Motka</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="1" t="n">
         <v>43967</v>
       </c>
       <c r="D7" t="inlineStr">
@@ -636,7 +624,7 @@
           <t>Tanay Gujarati</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="1" t="n">
         <v>43838</v>
       </c>
       <c r="D8" t="inlineStr">
@@ -664,7 +652,7 @@
           <t>Tej Doshi</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="1" t="n">
         <v>44160</v>
       </c>
       <c r="D9" t="inlineStr">
@@ -692,7 +680,7 @@
           <t>Pranav Premlani</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="1" t="n">
         <v>44165</v>
       </c>
       <c r="D10" t="inlineStr">
@@ -720,7 +708,7 @@
           <t>Viraj BAPS</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="1" t="n">
         <v>44172</v>
       </c>
       <c r="D11" t="inlineStr">
@@ -748,7 +736,7 @@
           <t>Aditya Bhatt Suramya</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="1" t="n">
         <v>44006</v>
       </c>
       <c r="D12" t="inlineStr">
@@ -776,7 +764,7 @@
           <t>Shubham Amrelia</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="1" t="n">
         <v>36569</v>
       </c>
       <c r="D13" t="inlineStr">
@@ -804,7 +792,7 @@
           <t>Yuvraj Chauhan KV</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="1" t="n">
         <v>44124</v>
       </c>
       <c r="D14" t="inlineStr">
@@ -832,7 +820,7 @@
           <t>Harsh Kapadia Allen</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="1" t="n">
         <v>43979</v>
       </c>
       <c r="D15" t="inlineStr">
@@ -858,7 +846,7 @@
           <t>Harsh Sukheja Kv</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="1" t="n">
         <v>44072</v>
       </c>
       <c r="D16" t="inlineStr">
@@ -884,7 +872,7 @@
           <t>Vrushang Vaishnav</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="1" t="n">
         <v>44085</v>
       </c>
       <c r="D17" t="inlineStr">
@@ -912,7 +900,7 @@
           <t>Meet Jani</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="1" t="n">
         <v>43860</v>
       </c>
       <c r="D18" t="inlineStr">
@@ -938,7 +926,7 @@
           <t>Rohan</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="1" t="n">
         <v>44075</v>
       </c>
       <c r="D19" t="inlineStr">
@@ -964,7 +952,7 @@
           <t>Nayan Patel</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="1" t="n">
         <v>43896</v>
       </c>
       <c r="D20" t="inlineStr">
@@ -992,7 +980,7 @@
           <t>Jay Patel Adani</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="1" t="n">
         <v>44139</v>
       </c>
       <c r="D21" t="inlineStr">
@@ -1020,7 +1008,7 @@
           <t>Dhruvil Shah PDPU</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="D22" t="inlineStr">
@@ -1048,7 +1036,7 @@
           <t>Dhruvil Shah PDPU</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="1" t="n">
         <v>43879</v>
       </c>
       <c r="D23" t="inlineStr">
@@ -1076,7 +1064,7 @@
           <t>Dishita Neve</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="1" t="n">
         <v>43887</v>
       </c>
       <c r="D24" t="inlineStr">
@@ -1104,7 +1092,7 @@
           <t>Preet Modh</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="1" t="n">
         <v>44093</v>
       </c>
       <c r="D25" t="inlineStr">
@@ -1132,7 +1120,7 @@
           <t>Vaibhavi Tiwari</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="1" t="n">
         <v>44087</v>
       </c>
       <c r="D26" t="inlineStr">
@@ -1160,7 +1148,7 @@
           <t>Khushi Kothari</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="1" t="n">
         <v>37271</v>
       </c>
       <c r="D27" t="inlineStr">
@@ -1186,7 +1174,7 @@
           <t>Shrushti Shah</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="1" t="n">
         <v>37539</v>
       </c>
       <c r="D28" t="inlineStr">
@@ -1214,7 +1202,7 @@
           <t>Nandan Shukla</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="1" t="n">
         <v>36966</v>
       </c>
       <c r="D29" t="inlineStr">
@@ -1242,7 +1230,7 @@
           <t>Deepen Upadhyay</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="1" t="n">
         <v>37300</v>
       </c>
       <c r="D30" t="inlineStr">
@@ -1270,7 +1258,7 @@
           <t>Soham Shah</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="1" t="n">
         <v>36703</v>
       </c>
       <c r="D31" t="inlineStr">
@@ -1298,7 +1286,7 @@
           <t>Krupa Bhavsar</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="1" t="n">
         <v>37065</v>
       </c>
       <c r="D32" t="inlineStr">
@@ -1326,7 +1314,7 @@
           <t>Jaahanava Joshi</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="1" t="n">
         <v>37137</v>
       </c>
       <c r="D33" t="inlineStr">
@@ -1354,7 +1342,7 @@
           <t>Khushali Vasani</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="1" t="n">
         <v>37015</v>
       </c>
       <c r="D34" t="inlineStr">
@@ -1380,7 +1368,7 @@
           <t>Kahan Shah</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="1" t="n">
         <v>36954</v>
       </c>
       <c r="D35" t="inlineStr">
@@ -1406,7 +1394,7 @@
           <t>Shloka Bhatt</t>
         </is>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="1" t="n">
         <v>37247</v>
       </c>
       <c r="D36" t="inlineStr">
@@ -1434,7 +1422,7 @@
           <t>Krish Nasit</t>
         </is>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="1" t="n">
         <v>36763</v>
       </c>
       <c r="D37" t="inlineStr">
@@ -1462,7 +1450,7 @@
           <t>Naincy Chovatia</t>
         </is>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="1" t="n">
         <v>37184</v>
       </c>
       <c r="D38" t="inlineStr">
@@ -1490,7 +1478,7 @@
           <t>Divyesh Gupta</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="1" t="n">
         <v>36866</v>
       </c>
       <c r="D39" t="inlineStr">
@@ -1518,7 +1506,7 @@
           <t>Hrishik Parmar</t>
         </is>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="1" t="n">
         <v>37012</v>
       </c>
       <c r="D40" t="inlineStr">
@@ -1544,7 +1532,7 @@
           <t>Preyansh Joshi</t>
         </is>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="1" t="n">
         <v>36979</v>
       </c>
       <c r="D41" t="inlineStr">
@@ -1570,7 +1558,7 @@
           <t>Jeet Shelat</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="1" t="n">
         <v>37135</v>
       </c>
       <c r="D42" t="inlineStr">
@@ -1594,7 +1582,7 @@
           <t>Sakshi Patel</t>
         </is>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="1" t="n">
         <v>36674</v>
       </c>
       <c r="D43" t="inlineStr">
@@ -1620,7 +1608,7 @@
           <t>Pratham Shah</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="1" t="n">
         <v>37034</v>
       </c>
       <c r="D44" t="inlineStr">
@@ -1646,7 +1634,7 @@
           <t>Meher Gulabsinghani</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="1" t="n">
         <v>36805</v>
       </c>
       <c r="D45" t="inlineStr">
@@ -1674,7 +1662,7 @@
           <t>Aarti Makwana</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="1" t="n">
         <v>35802</v>
       </c>
       <c r="D46" t="inlineStr">
@@ -1700,7 +1688,7 @@
           <t>Suraj Bire</t>
         </is>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="1" t="n">
         <v>36430</v>
       </c>
       <c r="D47" t="inlineStr">
@@ -1728,7 +1716,7 @@
           <t>Shalini Modi</t>
         </is>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="1" t="n">
         <v>33149</v>
       </c>
       <c r="D48" t="inlineStr">
